--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fkiran/Documents/GitHub/Big5_SAI_TAI_NASATLX/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086272A-0CEF-0341-B27D-F1F6ED8ABE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F807EB80-A813-A748-9C1D-DC7A304920FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1200" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28200" windowHeight="18380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Big-5" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -132,9 +132,6 @@
     <t>N_F</t>
   </si>
   <si>
-    <t>NASA_sum</t>
-  </si>
-  <si>
     <t>Extraversion</t>
   </si>
   <si>
@@ -316,6 +313,54 @@
   </si>
   <si>
     <t>TAI_SUM</t>
+  </si>
+  <si>
+    <t>NASA TLX_Q1</t>
+  </si>
+  <si>
+    <t>How mentally demanding was the driving?</t>
+  </si>
+  <si>
+    <t>1 -- 7</t>
+  </si>
+  <si>
+    <t>NASA TLX_Q2</t>
+  </si>
+  <si>
+    <t>How physically demanding was the driving?</t>
+  </si>
+  <si>
+    <t>NASA TLX_Q3</t>
+  </si>
+  <si>
+    <t>How hurried or rushed was the pace of the driving?</t>
+  </si>
+  <si>
+    <t>NASA TLX_Q4</t>
+  </si>
+  <si>
+    <t>How well did you perform in your driving?</t>
+  </si>
+  <si>
+    <t>NASA TLX_Q5</t>
+  </si>
+  <si>
+    <t>How hard did you have to work to accomplish your level of driving performance?</t>
+  </si>
+  <si>
+    <t>NASA TLX_Q6</t>
+  </si>
+  <si>
+    <t>How insecure, discouraged, irritated, stressed and annoyed were you while driving?</t>
+  </si>
+  <si>
+    <t>QNAME</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Scale</t>
   </si>
 </sst>
 </file>
@@ -423,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,6 +483,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,6 +550,50 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473366</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>429493</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41685E6-3695-66A8-5164-25CFF6D51F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8104911" y="2540000"/>
+          <a:ext cx="7772400" cy="4342326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -510,16 +601,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17398</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>94607</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360298</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -542,8 +633,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="2603500"/>
-          <a:ext cx="7772400" cy="5593707"/>
+          <a:off x="2470412" y="2456319"/>
+          <a:ext cx="7701941" cy="5470360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30794</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>543665</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F4FA07-C8AC-49E4-AF9A-C5347A67E5BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10660520" y="2432833"/>
+          <a:ext cx="7054241" cy="8676536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,23 +694,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>94607</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A32854-E902-9945-9846-9C33D54BF561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56CE1C82-EA40-5147-9412-470E3C22A739}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -591,8 +726,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="2603500"/>
+          <a:off x="2489200" y="2438400"/>
           <a:ext cx="7772400" cy="5593707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A3013E-D060-595C-EEAB-93FD0C24ECF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10744200" y="2451100"/>
+          <a:ext cx="7124700" cy="8978900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -825,49 +1004,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
@@ -1422,44 +1601,44 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="5:7" ht="15.75" customHeight="1">
       <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="5:7" ht="15.75" customHeight="1">
       <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="5:7" ht="15.75" customHeight="1">
       <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="5:7" ht="15.75" customHeight="1">
       <c r="E20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1478,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66425FD8-EB5B-BE41-BE48-7EB91DADF997}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1489,67 +1668,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="V1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15">
@@ -2262,29 +2441,41 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="20">
-      <c r="D23" s="11" t="s">
-        <v>63</v>
-      </c>
+    <row r="17" spans="1:8" ht="20">
+      <c r="A17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20">
+      <c r="A19" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20">
+      <c r="A20" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20">
+      <c r="D23" s="11"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="4:8" ht="20">
-      <c r="D24" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="20">
-      <c r="D25" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" ht="20">
-      <c r="D26" s="11" t="s">
-        <v>62</v>
-      </c>
+    <row r="24" spans="1:8" ht="20">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="20">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="20">
+      <c r="D26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2297,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3561DEEC-E0B9-CC46-80A9-05D6F881BE5A}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2308,67 +2499,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15">
@@ -3081,29 +3272,41 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="20">
-      <c r="D23" s="11" t="s">
-        <v>63</v>
-      </c>
+    <row r="17" spans="1:8" ht="20">
+      <c r="A17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20">
+      <c r="A19" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20">
+      <c r="A20" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20">
+      <c r="D23" s="11"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="4:8" ht="20">
-      <c r="D24" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="20">
-      <c r="D25" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" ht="20">
-      <c r="D26" s="11" t="s">
-        <v>62</v>
-      </c>
+    <row r="24" spans="1:8" ht="20">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="20">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="20">
+      <c r="D26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3117,15 +3320,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="11" max="11" width="67" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3150,11 +3356,17 @@
       <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3179,12 +3391,17 @@
       <c r="H2" s="4">
         <v>18</v>
       </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:I41" si="0">SUM(C2:H2)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3209,12 +3426,17 @@
       <c r="H3" s="4">
         <v>17</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3239,12 +3461,17 @@
       <c r="H4" s="4">
         <v>12</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3269,12 +3496,17 @@
       <c r="H5" s="4">
         <v>11</v>
       </c>
-      <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3299,12 +3531,17 @@
       <c r="H6" s="4">
         <v>11</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -3329,12 +3566,17 @@
       <c r="H7" s="4">
         <v>17</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3359,12 +3601,8 @@
       <c r="H8" s="4">
         <v>16</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3389,12 +3627,8 @@
       <c r="H9" s="4">
         <v>8</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3419,12 +3653,8 @@
       <c r="H10" s="4">
         <v>11</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3449,12 +3679,8 @@
       <c r="H11" s="4">
         <v>18</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -3479,12 +3705,8 @@
       <c r="H12" s="4">
         <v>8</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3509,12 +3731,8 @@
       <c r="H13" s="4">
         <v>11</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -3539,12 +3757,8 @@
       <c r="H14" s="4">
         <v>17</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3569,12 +3783,8 @@
       <c r="H15" s="4">
         <v>18</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -3599,12 +3809,8 @@
       <c r="H16" s="4">
         <v>19</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -3629,12 +3835,8 @@
       <c r="H17" s="4">
         <v>10</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -3659,12 +3861,8 @@
       <c r="H18" s="4">
         <v>14</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -3689,12 +3887,8 @@
       <c r="H19" s="4">
         <v>18</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -3719,12 +3913,8 @@
       <c r="H20" s="4">
         <v>12</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -3749,12 +3939,8 @@
       <c r="H21" s="4">
         <v>10</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -3779,12 +3965,8 @@
       <c r="H22" s="4">
         <v>4</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
@@ -3809,12 +3991,8 @@
       <c r="H23" s="4">
         <v>16</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -3839,12 +4017,8 @@
       <c r="H24" s="4">
         <v>18</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
@@ -3869,12 +4043,8 @@
       <c r="H25" s="4">
         <v>14</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -3899,12 +4069,8 @@
       <c r="H26" s="4">
         <v>20</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -3929,12 +4095,8 @@
       <c r="H27" s="4">
         <v>20</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -3959,12 +4121,8 @@
       <c r="H28" s="4">
         <v>18</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -3989,12 +4147,8 @@
       <c r="H29" s="4">
         <v>12</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -4019,12 +4173,8 @@
       <c r="H30" s="4">
         <v>2</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -4049,12 +4199,8 @@
       <c r="H31" s="4">
         <v>2</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -4079,12 +4225,8 @@
       <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
@@ -4109,12 +4251,8 @@
       <c r="H33" s="4">
         <v>1</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -4139,12 +4277,8 @@
       <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -4169,12 +4303,8 @@
       <c r="H35" s="4">
         <v>1</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -4199,12 +4329,8 @@
       <c r="H36" s="4">
         <v>1</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -4229,12 +4355,8 @@
       <c r="H37" s="4">
         <v>16</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
@@ -4259,12 +4381,8 @@
       <c r="H38" s="4">
         <v>5</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
@@ -4289,12 +4407,8 @@
       <c r="H39" s="4">
         <v>11</v>
       </c>
-      <c r="I39" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
@@ -4319,12 +4433,8 @@
       <c r="H40" s="4">
         <v>3</v>
       </c>
-      <c r="I40" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
@@ -4348,10 +4458,6 @@
       </c>
       <c r="H41" s="4">
         <v>15</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="0"/>
-        <v>71</v>
       </c>
     </row>
   </sheetData>
